--- a/Collections/India/#Republic_of_India#Regular#[1950-1956]#circulation_quality.xlsx
+++ b/Collections/India/#Republic_of_India#Regular#[1950-1956]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\India\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E734F360-5E50-49F3-B120-6495340D3175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7F7C97-1AFA-42F1-A2C6-F58B92B04752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1pice" sheetId="28" r:id="rId1"/>
@@ -747,7 +747,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="67">
   <si>
     <t>-</t>
   </si>
@@ -755,9 +755,6 @@
     <t>№</t>
   </si>
   <si>
-    <t>coindatabase</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -773,21 +770,6 @@
     <t>Description (single table, table set, mintage, prices):</t>
   </si>
   <si>
-    <t>Middle convenience set of tables all coins with mintages</t>
-  </si>
-  <si>
-    <t>royalmint</t>
-  </si>
-  <si>
-    <t>Middle convenience no table actual mintages</t>
-  </si>
-  <si>
-    <t>ru.ucoin.net</t>
-  </si>
-  <si>
-    <t>Low convenience set of tables with photos</t>
-  </si>
-  <si>
     <t>Subject</t>
   </si>
   <si>
@@ -945,6 +927,27 @@
   </si>
   <si>
     <t>Subtype_2#Special_distinctions_1</t>
+  </si>
+  <si>
+    <t>Rev: Prancing horse facing left</t>
+  </si>
+  <si>
+    <t>Rev: Zebu left, date at the bottom</t>
+  </si>
+  <si>
+    <t>Rev: Zebu left</t>
+  </si>
+  <si>
+    <t>Rev: Grain sprigs flank denomination and "Chaar Aana" in Devnagari</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>Rev: Value flanked by stalks of wheat, date below, and the legend 'Aadha Rupya' in Devnagari</t>
+  </si>
+  <si>
+    <t>Rev: Thick numeral, first Hindi letter varieties, larger date</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1191,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1221,9 +1224,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1257,6 +1257,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1282,23 +1285,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="38">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1580,15 +1581,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1610,16 +1602,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица43" displayName="Таблица43" ref="A1:C5" totalsRowShown="0">
-  <autoFilter ref="A1:C5" xr:uid="{00000000-0009-0000-0100-000002000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица43" displayName="Таблица43" ref="A1:C2" totalsRowShown="0">
+  <autoFilter ref="A1:C2" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="37" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1928,7 +1920,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="B2:G2"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1943,466 +1935,492 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="23"/>
+        <v>3</v>
+      </c>
+      <c r="B1" s="22"/>
       <c r="C1" s="31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="32"/>
       <c r="E1" s="24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="26"/>
       <c r="H1" s="27" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I1" s="28"/>
       <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15">
+        <v>1950</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="21" t="str">
+        <f t="shared" ref="K3:K15" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="17">
+        <v>1950</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="17">
+        <v>1951</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="17">
+        <v>1951</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="16">
+        <v>1952</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="16">
+        <v>1953</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16">
-        <v>1950</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="22" t="str">
-        <f t="shared" ref="K3:K15" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18">
-        <v>1950</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18">
-        <v>1951</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18">
-        <v>1951</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="17">
-        <v>1952</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17">
-        <v>1953</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="14" t="s">
+      <c r="F8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="4">
         <v>1</v>
       </c>
-      <c r="I8" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="22" t="str">
+      <c r="I8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18">
+      <c r="A9" s="17">
         <v>1953</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="14" t="s">
+      <c r="B9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="19" t="s">
         <v>0</v>
       </c>
       <c r="J9" s="4">
         <v>0</v>
       </c>
-      <c r="K9" s="22" t="str">
+      <c r="K9" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="18">
+      <c r="A10" s="17">
         <v>1953</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14" t="s">
+      <c r="B10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="19" t="s">
         <v>0</v>
       </c>
       <c r="I10" s="4">
         <v>0</v>
       </c>
-      <c r="J10" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="22" t="str">
+      <c r="J10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <v>1954</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="13"/>
+      <c r="B11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="12"/>
       <c r="E11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>0</v>
       </c>
       <c r="H11" s="4">
         <v>0</v>
       </c>
-      <c r="I11" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="22" t="str">
+      <c r="I11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="18">
+      <c r="A12" s="17">
         <v>1954</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="14" t="s">
+      <c r="B12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="19" t="s">
         <v>0</v>
       </c>
       <c r="J12" s="4">
         <v>0</v>
       </c>
-      <c r="K12" s="22" t="str">
+      <c r="K12" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="18">
+      <c r="A13" s="17">
         <v>1954</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14" t="s">
+      <c r="B13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="19" t="s">
         <v>0</v>
       </c>
       <c r="I13" s="4">
         <v>0</v>
       </c>
-      <c r="J13" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="22" t="str">
+      <c r="J13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="17">
+      <c r="A14" s="16">
         <v>1955</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="14" t="s">
+      <c r="B14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="19" t="s">
         <v>0</v>
       </c>
       <c r="J14" s="4">
         <v>0</v>
       </c>
-      <c r="K14" s="22" t="str">
+      <c r="K14" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="17">
+      <c r="A15" s="16">
         <v>1955</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14" t="s">
+      <c r="B15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19" t="s">
         <v>0</v>
       </c>
       <c r="I15" s="4">
         <v>0</v>
       </c>
-      <c r="J15" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K15" s="22" t="str">
+      <c r="J15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2415,7 +2433,7 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H3 I4">
+  <conditionalFormatting sqref="I4 H3">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2428,7 +2446,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3 I4">
-    <cfRule type="containsText" dxfId="35" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2445,11 +2463,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="containsText" dxfId="34" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5 I6">
+  <conditionalFormatting sqref="I6 H5">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2462,7 +2480,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5 I6">
-    <cfRule type="containsText" dxfId="33" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2479,7 +2497,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="containsText" dxfId="32" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2496,7 +2514,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="31" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2513,7 +2531,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="containsText" dxfId="30" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2530,7 +2548,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="29" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2547,7 +2565,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2564,7 +2582,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2581,7 +2599,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="containsText" dxfId="26" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2598,7 +2616,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2612,11 +2630,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C907026-0CCC-4383-92E5-F3BF523FF7D3}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="B2:G2"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2631,318 +2649,328 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="23"/>
+        <v>3</v>
+      </c>
+      <c r="B1" s="22"/>
       <c r="C1" s="31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="32"/>
       <c r="E1" s="24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="26"/>
       <c r="H1" s="27" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I1" s="28"/>
       <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30"/>
-      <c r="B2" s="33" t="s">
-        <v>13</v>
+      <c r="B2" s="23" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18">
+        <v>1950</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="21" t="str">
+        <f t="shared" ref="K3:K10" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18">
+        <v>1950</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18">
+        <v>1951</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="18">
+        <v>1952</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="18">
+        <v>1953</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="18">
+        <v>1954</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="18">
+        <v>1954</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="18">
+        <v>1955</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="19">
-        <v>1950</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="22" t="str">
-        <f t="shared" ref="K3:K10" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19">
-        <v>1950</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19">
-        <v>1951</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="19">
-        <v>1952</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19">
-        <v>1953</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="19">
-        <v>1954</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="19">
-        <v>1954</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="19">
-        <v>1955</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="20" t="s">
+      <c r="G10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="19" t="s">
         <v>0</v>
       </c>
       <c r="I10" s="4">
         <v>0</v>
       </c>
-      <c r="J10" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="22" t="str">
+      <c r="J10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2955,7 +2983,7 @@
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H3 I4">
+  <conditionalFormatting sqref="I4 H3">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2968,11 +2996,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3 I4">
-    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9 H8">
+  <conditionalFormatting sqref="H8 I9">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2985,7 +3013,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8 I9">
-    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3002,7 +3030,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3020,7 +3048,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:G2"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3035,258 +3063,262 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="23"/>
+        <v>3</v>
+      </c>
+      <c r="B1" s="22"/>
       <c r="C1" s="31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="32"/>
       <c r="E1" s="24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="26"/>
       <c r="H1" s="27" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I1" s="28"/>
       <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30"/>
-      <c r="B2" s="33" t="s">
-        <v>13</v>
+      <c r="B2" s="23" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="19">
+      <c r="A3" s="18">
         <v>1950</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
+      <c r="B3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="4">
         <v>0</v>
       </c>
-      <c r="J3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="22" t="str">
+      <c r="J3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="21" t="str">
         <f t="shared" ref="K3:K8" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19">
+      <c r="A4" s="18">
         <v>1951</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="22" t="str">
+      <c r="B4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19">
+      <c r="A5" s="18">
         <v>1952</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="22" t="str">
+      <c r="B5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="19">
+      <c r="A6" s="18">
         <v>1953</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="22" t="str">
+      <c r="B6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19">
+      <c r="A7" s="18">
         <v>1954</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14" t="s">
+      <c r="B7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13" t="s">
         <v>0</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>0</v>
       </c>
       <c r="I7" s="4">
         <v>0</v>
       </c>
-      <c r="J7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="22" t="str">
+      <c r="J7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="19">
+      <c r="A8" s="18">
         <v>1955</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="22" t="str">
+      <c r="B8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3312,7 +3344,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3329,7 +3361,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3347,7 +3379,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:G2"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3362,290 +3394,296 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="23"/>
+        <v>3</v>
+      </c>
+      <c r="B1" s="22"/>
       <c r="C1" s="31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="32"/>
       <c r="E1" s="24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="26"/>
       <c r="H1" s="27" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I1" s="28"/>
       <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30"/>
-      <c r="B2" s="33" t="s">
-        <v>13</v>
+      <c r="B2" s="23" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18">
+        <v>1950</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="21" t="str">
+        <f t="shared" ref="K3:K9" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18">
+        <v>1951</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18">
+        <v>1952</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="18">
+        <v>1953</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="18">
+        <v>1954</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="18">
+        <v>1954</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="18">
+        <v>1955</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="19">
-        <v>1950</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="22" t="str">
-        <f t="shared" ref="K3:K9" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19">
-        <v>1951</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19">
-        <v>1952</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="19">
-        <v>1953</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19">
-        <v>1954</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="19">
-        <v>1954</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="19">
-        <v>1955</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="20" t="s">
+      <c r="G9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19" t="s">
         <v>0</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
       </c>
-      <c r="J9" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" s="22" t="str">
+      <c r="J9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3671,7 +3709,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3688,7 +3726,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3705,7 +3743,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3723,7 +3761,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3738,522 +3776,554 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="23"/>
+        <v>3</v>
+      </c>
+      <c r="B1" s="22"/>
       <c r="C1" s="31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="32"/>
       <c r="E1" s="24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="26"/>
       <c r="H1" s="27" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I1" s="28"/>
       <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30"/>
-      <c r="B2" s="33" t="s">
-        <v>13</v>
+      <c r="B2" s="23" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18">
+        <v>1950</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="21" t="str">
+        <f>IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18">
+        <v>1950</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="21" t="str">
+        <f t="shared" ref="K4:K16" si="0">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18">
+        <v>1951</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="18">
+        <v>1951</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="18">
+        <v>1952</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="21" t="str">
+        <f t="shared" ref="K7" si="1">IF(OR(AND(H7&gt;1,H7&lt;&gt;"-"),AND(I7&gt;1,I7&lt;&gt;"-"),AND(J7&gt;1,J7&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="18">
+        <v>1953</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="18">
+        <v>1953</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="18">
+        <v>1953</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18">
+        <v>1954</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="18">
+        <v>1954</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="18">
+        <v>1954</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="18">
+        <v>1955</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="18">
+        <v>1955</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="20">
+        <v>1956</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="19">
-        <v>1950</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="22" t="str">
-        <f>IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19">
-        <v>1950</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="22" t="str">
-        <f t="shared" ref="K4:K16" si="0">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19">
-        <v>1951</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="19">
-        <v>1951</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19">
-        <v>1952</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="19">
-        <v>1953</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="19">
-        <v>1953</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="19">
-        <v>1953</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="19">
-        <v>1954</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="19">
-        <v>1954</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="19">
-        <v>1954</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="19">
-        <v>1955</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="19">
-        <v>1955</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="C16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K15" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="21">
-        <v>1956</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="14" t="s">
+      <c r="F16" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>0</v>
       </c>
       <c r="H16" s="4">
         <v>0</v>
       </c>
-      <c r="I16" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K16" s="22" t="str">
+      <c r="I16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4279,24 +4349,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3 I4">
-    <cfRule type="containsText" dxfId="16" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="containsText" dxfId="15" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4313,7 +4366,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5 I6">
-    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4342,7 +4395,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="13" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4359,7 +4412,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4376,12 +4429,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4398,7 +4451,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4415,7 +4468,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4433,7 +4486,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:G2"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4448,346 +4501,360 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="23"/>
+        <v>3</v>
+      </c>
+      <c r="B1" s="22"/>
       <c r="C1" s="31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="32"/>
       <c r="E1" s="24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="26"/>
       <c r="H1" s="27" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I1" s="28"/>
       <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30"/>
-      <c r="B2" s="33" t="s">
-        <v>13</v>
+      <c r="B2" s="23" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="20">
+        <v>1950</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="C3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="21" t="str">
+        <f t="shared" ref="K3:K11" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="20">
+        <v>1950</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="20">
+        <v>1951</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="20">
+        <v>1952</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="20">
+        <v>1953</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="20">
+        <v>1954</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="20">
+        <v>1954</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21">
-        <v>1950</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="22" t="str">
-        <f t="shared" ref="K3:K11" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21">
-        <v>1950</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="22" t="str">
+      <c r="G9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21">
-        <v>1951</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="22" t="str">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="20">
+        <v>1955</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="21">
-        <v>1952</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21">
-        <v>1953</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="21">
-        <v>1954</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="21">
-        <v>1954</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="21">
-        <v>1955</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="21">
+      <c r="A11" s="20">
         <v>1956</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="13"/>
+      <c r="B11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="12"/>
       <c r="E11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>0</v>
       </c>
       <c r="H11" s="4">
         <v>0</v>
       </c>
-      <c r="I11" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="22" t="str">
+      <c r="I11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4813,11 +4880,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3 I4">
+  <conditionalFormatting sqref="I4 H3">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4830,7 +4897,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3 I4">
-    <cfRule type="containsText" dxfId="6" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4847,7 +4914,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="containsText" dxfId="5" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4864,7 +4931,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="containsText" dxfId="4" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4881,12 +4948,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="3" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4912,11 +4979,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99381819-41CC-4CBA-BDE9-7DF0EF8BEB37}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4931,258 +4998,262 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="23"/>
+        <v>3</v>
+      </c>
+      <c r="B1" s="22"/>
       <c r="C1" s="31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="32"/>
       <c r="E1" s="24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="26"/>
       <c r="H1" s="27" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I1" s="28"/>
       <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30"/>
-      <c r="B2" s="33" t="s">
-        <v>13</v>
+      <c r="B2" s="23" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="20">
+        <v>1950</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="21" t="str">
+        <f t="shared" ref="K3:K8" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="20">
+        <v>1951</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="20">
+        <v>1952</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="20">
+        <v>1953</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="20">
+        <v>1954</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21">
-        <v>1950</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="22" t="str">
-        <f t="shared" ref="K3:K8" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21">
-        <v>1951</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="22" t="str">
+      <c r="G7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21">
-        <v>1952</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="21">
-        <v>1953</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21">
-        <v>1954</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="21">
+      <c r="A8" s="20">
         <v>1955</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="22" t="str">
+      <c r="B8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5208,7 +5279,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5225,7 +5296,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5237,13 +5308,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5258,10 +5329,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -5269,54 +5340,18 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="15"/>
+      <c r="C2" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{9A09EC9A-C2A6-43A2-B93A-AFF9035BA602}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{9A09EC9A-C2A6-43A2-B93A-AFF9035BA602}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>